--- a/assets/ar_db.xlsx
+++ b/assets/ar_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talor.samara\Desktop\myProject\arbox-db\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE2CF89-0AA3-4B78-8F52-8C7B9AE332D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08C8D28-8B23-1B4D-8D61-E1AE6C81D66A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{432BF85D-12D4-3342-815A-A81EC82FAF93}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="24680" windowHeight="15000" activeTab="1" xr2:uid="{432BF85D-12D4-3342-815A-A81EC82FAF93}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -449,16 +449,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643CB8B0-F301-F749-A184-560DE40E6C2E}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="11.19921875" style="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -474,14 +471,14 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -504,7 +501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -527,7 +524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -552,7 +549,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -560,16 +556,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1A6F7C-D6DD-E849-B49C-F24E767ABD54}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -586,7 +582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -603,7 +599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -620,7 +616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -637,7 +633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -656,6 +652,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>